--- a/data/trans_orig/IP07A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B301925-E350-46D3-96E4-C80AB9EA125E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E30E44-7FF7-4C09-AEB3-C2E4FE35D644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B9A10AD2-C271-4DA8-ACAF-B576FCA71E81}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{20418202-2C55-44CD-9529-C898D5ADCDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,171 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
     <t>5,33%</t>
   </si>
   <si>
@@ -118,33 +262,6 @@
     <t>8,8%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
     <t>41,92%</t>
   </si>
   <si>
@@ -172,18 +289,6 @@
     <t>43,42%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>51,89%</t>
   </si>
   <si>
@@ -211,109 +316,37 @@
     <t>56,11%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>5,46%</t>
@@ -343,27 +376,6 @@
     <t>8,08%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
     <t>39,02%</t>
   </si>
   <si>
@@ -391,18 +403,6 @@
     <t>41,59%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
     <t>54,82%</t>
   </si>
   <si>
@@ -433,6 +433,138 @@
     <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 44,78%)</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
     <t>6,41%</t>
   </si>
   <si>
@@ -460,30 +592,6 @@
     <t>9,83%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
     <t>38,67%</t>
   </si>
   <si>
@@ -508,18 +616,6 @@
     <t>41,72%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
     <t>53,18%</t>
   </si>
   <si>
@@ -547,100 +643,37 @@
     <t>56,26%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>5,93%</t>
@@ -667,24 +700,6 @@
     <t>8,57%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
     <t>39,35%</t>
   </si>
   <si>
@@ -712,21 +727,6 @@
     <t>42,14%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
     <t>53,14%</t>
   </si>
   <si>
@@ -757,6 +757,120 @@
     <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 47,27%)</t>
   </si>
   <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
     <t>4,28%</t>
   </si>
   <si>
@@ -784,27 +898,6 @@
     <t>6,72%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
     <t>29,94%</t>
   </si>
   <si>
@@ -832,12 +925,6 @@
     <t>35,84%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
     <t>65,19%</t>
   </si>
   <si>
@@ -865,91 +952,25 @@
     <t>65,07%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>4,43%</t>
@@ -976,18 +997,6 @@
     <t>5,9%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
     <t>31,85%</t>
   </si>
   <si>
@@ -1013,15 +1022,6 @@
   </si>
   <si>
     <t>36,74%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
   </si>
   <si>
     <t>63,26%</t>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94936950-2DD5-426C-8F2A-C5E0E57AD227}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E6C64B-3CAA-4CFC-86CE-6FFCF3F41C0D}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1830,10 +1830,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>14825</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1845,34 +1845,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>23049</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>58</v>
-      </c>
-      <c r="N10" s="7">
-        <v>37874</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,49 +1881,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1715</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>1374</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1715</v>
+        <v>1374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,49 +1932,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>116615</v>
+        <v>3914</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>99864</v>
+        <v>671</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>322</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>216479</v>
+        <v>4585</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,49 +1983,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>667</v>
+        <v>17178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>23163</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="N13" s="7">
-        <v>667</v>
+        <v>40341</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,49 +2034,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7">
-        <v>144352</v>
+        <v>43622</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="7">
+        <v>45</v>
+      </c>
+      <c r="I14" s="7">
+        <v>30835</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>111</v>
+      </c>
+      <c r="N14" s="7">
+        <v>74457</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="7">
-        <v>211</v>
-      </c>
-      <c r="I14" s="7">
-        <v>142690</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="7">
-        <v>427</v>
-      </c>
-      <c r="N14" s="7">
-        <v>287042</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,102 +2085,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>417</v>
+        <v>98</v>
       </c>
       <c r="D15" s="7">
-        <v>278175</v>
+        <v>64714</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>265603</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>811</v>
+        <v>181</v>
       </c>
       <c r="N15" s="7">
-        <v>543778</v>
+        <v>120756</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>3914</v>
+        <v>667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="7">
         <v>1</v>
       </c>
-      <c r="I16" s="7">
-        <v>671</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" s="7">
-        <v>7</v>
-      </c>
       <c r="N16" s="7">
-        <v>4585</v>
+        <v>667</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,49 +2189,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1715</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1374</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>1374</v>
+        <v>1715</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,49 +2240,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>17178</v>
+        <v>14825</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
       </c>
       <c r="I18" s="7">
-        <v>23163</v>
+        <v>23049</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M18" s="7">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N18" s="7">
-        <v>40341</v>
+        <v>37874</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,46 +2291,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>116615</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>99864</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="7">
+        <v>322</v>
+      </c>
+      <c r="N19" s="7">
+        <v>216479</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>82</v>
@@ -2342,10 +2342,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="D20" s="7">
-        <v>43622</v>
+        <v>144352</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>83</v>
@@ -2357,10 +2357,10 @@
         <v>85</v>
       </c>
       <c r="H20" s="7">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="I20" s="7">
-        <v>30835</v>
+        <v>142690</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>86</v>
@@ -2372,10 +2372,10 @@
         <v>88</v>
       </c>
       <c r="M20" s="7">
-        <v>111</v>
+        <v>427</v>
       </c>
       <c r="N20" s="7">
-        <v>74457</v>
+        <v>287042</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>89</v>
@@ -2393,49 +2393,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="D21" s="7">
-        <v>64714</v>
+        <v>278175</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>265603</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>181</v>
+        <v>811</v>
       </c>
       <c r="N21" s="7">
-        <v>120756</v>
+        <v>543778</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,49 +2446,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>18739</v>
+        <v>667</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="7">
-        <v>36</v>
-      </c>
-      <c r="I22" s="7">
-        <v>23720</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>667</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" s="7">
-        <v>65</v>
-      </c>
-      <c r="N22" s="7">
-        <v>42458</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2503,13 @@
         <v>1715</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -2518,13 +2518,13 @@
         <v>1374</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -2533,13 +2533,13 @@
         <v>3089</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,49 +2548,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7">
-        <v>133794</v>
+        <v>18739</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="7">
+        <v>36</v>
+      </c>
+      <c r="I24" s="7">
+        <v>23720</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>65</v>
+      </c>
+      <c r="N24" s="7">
+        <v>42458</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="7">
-        <v>183</v>
-      </c>
-      <c r="I24" s="7">
-        <v>123027</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M24" s="7">
-        <v>383</v>
-      </c>
-      <c r="N24" s="7">
-        <v>256820</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,49 +2599,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D25" s="7">
-        <v>667</v>
+        <v>133794</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="7">
+        <v>183</v>
+      </c>
+      <c r="I25" s="7">
+        <v>123027</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>383</v>
+      </c>
+      <c r="N25" s="7">
+        <v>256820</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>667</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2707,13 @@
         <v>342890</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>477</v>
@@ -2722,13 +2722,13 @@
         <v>321645</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>992</v>
@@ -2737,13 +2737,13 @@
         <v>664534</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2762,7 +2762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BA6653-CB13-44E6-8E0A-9905EDAD1CB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E64474-DCB0-4943-AA1E-4E49E02A69A7}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3152,49 +3152,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>17068</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>680</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="7">
-        <v>33</v>
-      </c>
-      <c r="I10" s="7">
-        <v>22131</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>680</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M10" s="7">
-        <v>59</v>
-      </c>
-      <c r="N10" s="7">
-        <v>39199</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,49 +3203,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>3332</v>
+        <v>654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1974</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>5306</v>
+        <v>654</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,49 +3254,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>102991</v>
+        <v>2634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H12" s="7">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>95393</v>
+        <v>2292</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="M12" s="7">
-        <v>288</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>198384</v>
+        <v>4925</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,49 +3305,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>1307</v>
+        <v>27838</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>798</v>
+        <v>29500</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="N13" s="7">
-        <v>2105</v>
+        <v>57339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,49 +3356,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7">
-        <v>141636</v>
+        <v>35048</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="7">
+        <v>55</v>
+      </c>
+      <c r="I14" s="7">
+        <v>39497</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>103</v>
+      </c>
+      <c r="N14" s="7">
+        <v>74545</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="7">
-        <v>182</v>
-      </c>
-      <c r="I14" s="7">
-        <v>129111</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M14" s="7">
-        <v>390</v>
-      </c>
-      <c r="N14" s="7">
-        <v>270747</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,102 +3407,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>392</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>266334</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>355</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>249406</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>747</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>515740</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2634</v>
+        <v>1307</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>798</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" s="7">
         <v>3</v>
       </c>
-      <c r="I16" s="7">
-        <v>2292</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M16" s="7">
-        <v>7</v>
-      </c>
       <c r="N16" s="7">
-        <v>4925</v>
+        <v>2105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,49 +3511,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>654</v>
+        <v>3332</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1974</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>654</v>
+        <v>5306</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,49 +3562,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7">
-        <v>27838</v>
+        <v>17068</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="7">
+        <v>33</v>
+      </c>
+      <c r="I18" s="7">
+        <v>22131</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>59</v>
+      </c>
+      <c r="N18" s="7">
+        <v>39199</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H18" s="7">
-        <v>42</v>
-      </c>
-      <c r="I18" s="7">
-        <v>29500</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M18" s="7">
-        <v>81</v>
-      </c>
-      <c r="N18" s="7">
-        <v>57339</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,49 +3613,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>102991</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="7">
+        <v>137</v>
+      </c>
+      <c r="I19" s="7">
+        <v>95393</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" s="7">
+        <v>288</v>
+      </c>
+      <c r="N19" s="7">
+        <v>198384</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>680</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>680</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,25 +3664,25 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="D20" s="7">
-        <v>35048</v>
+        <v>141636</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>194</v>
       </c>
       <c r="H20" s="7">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="I20" s="7">
-        <v>39497</v>
+        <v>129111</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>195</v>
@@ -3694,10 +3694,10 @@
         <v>197</v>
       </c>
       <c r="M20" s="7">
-        <v>103</v>
+        <v>390</v>
       </c>
       <c r="N20" s="7">
-        <v>74545</v>
+        <v>270747</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>198</v>
@@ -3715,49 +3715,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>392</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>266334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>249406</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>747</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>515740</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,49 +3768,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>19702</v>
+        <v>1307</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>201</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1478</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H22" s="7">
-        <v>36</v>
-      </c>
-      <c r="I22" s="7">
-        <v>24422</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2785</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="M22" s="7">
-        <v>66</v>
-      </c>
-      <c r="N22" s="7">
-        <v>44124</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3825,13 @@
         <v>3986</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3840,13 +3840,13 @@
         <v>1974</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3855,13 +3855,13 @@
         <v>5959</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,49 +3870,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="D24" s="7">
-        <v>130830</v>
+        <v>19702</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H24" s="7">
+        <v>36</v>
+      </c>
+      <c r="I24" s="7">
+        <v>24422</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>66</v>
+      </c>
+      <c r="N24" s="7">
+        <v>44124</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H24" s="7">
-        <v>179</v>
-      </c>
-      <c r="I24" s="7">
-        <v>124893</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M24" s="7">
-        <v>369</v>
-      </c>
-      <c r="N24" s="7">
-        <v>255723</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,43 +3921,43 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="D25" s="7">
-        <v>1307</v>
+        <v>130830</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="7">
+        <v>179</v>
+      </c>
+      <c r="I25" s="7">
+        <v>124893</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1478</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>369</v>
+      </c>
+      <c r="N25" s="7">
+        <v>255723</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2785</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>227</v>
@@ -4029,13 +4029,13 @@
         <v>332508</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>456</v>
@@ -4044,13 +4044,13 @@
         <v>321375</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>940</v>
@@ -4059,13 +4059,13 @@
         <v>653883</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4084,7 +4084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0505EE44-BFEF-48E6-9040-219D3E017029}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E199B-8457-40DF-9B7D-59888B960C2A}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4474,49 +4474,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7">
-        <v>12028</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H10" s="7">
-        <v>21</v>
-      </c>
-      <c r="I10" s="7">
-        <v>15217</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M10" s="7">
-        <v>38</v>
-      </c>
-      <c r="N10" s="7">
-        <v>27245</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,49 +4525,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>3236</v>
+        <v>1793</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>4887</v>
+        <v>1793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,49 +4576,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>84110</v>
+        <v>3952</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H12" s="7">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>92855</v>
+        <v>1517</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="M12" s="7">
-        <v>247</v>
+        <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>176965</v>
+        <v>5469</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,49 +4627,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>30780</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>524</v>
+        <v>33339</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="N13" s="7">
-        <v>524</v>
+        <v>64119</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,49 +4678,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>245</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7">
-        <v>183170</v>
+        <v>45001</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="7">
+        <v>83</v>
+      </c>
+      <c r="I14" s="7">
+        <v>54864</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M14" s="7">
+        <v>147</v>
+      </c>
+      <c r="N14" s="7">
+        <v>99865</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H14" s="7">
-        <v>215</v>
-      </c>
-      <c r="I14" s="7">
-        <v>153427</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M14" s="7">
-        <v>460</v>
-      </c>
-      <c r="N14" s="7">
-        <v>336597</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,102 +4729,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>380</v>
+        <v>115</v>
       </c>
       <c r="D15" s="7">
-        <v>280958</v>
+        <v>79732</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>265259</v>
+        <v>91513</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>752</v>
+        <v>253</v>
       </c>
       <c r="N15" s="7">
-        <v>546217</v>
+        <v>171245</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>3952</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1517</v>
+        <v>524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>135</v>
       </c>
       <c r="M16" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>5469</v>
+        <v>524</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,49 +4833,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>1793</v>
+        <v>3236</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>1793</v>
+        <v>4887</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,49 +4884,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>30780</v>
+        <v>12028</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="H18" s="7">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>33339</v>
+        <v>15217</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M18" s="7">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="N18" s="7">
-        <v>64119</v>
+        <v>27245</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,49 +4935,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>84110</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>65</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>92855</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M19" s="7">
+        <v>247</v>
+      </c>
+      <c r="N19" s="7">
+        <v>176965</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,46 +4986,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="D20" s="7">
-        <v>45001</v>
+        <v>183170</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>215</v>
+      </c>
+      <c r="I20" s="7">
+        <v>153427</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H20" s="7">
-        <v>83</v>
-      </c>
-      <c r="I20" s="7">
-        <v>54864</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>460</v>
+      </c>
+      <c r="N20" s="7">
+        <v>336597</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M20" s="7">
-        <v>147</v>
-      </c>
-      <c r="N20" s="7">
-        <v>99865</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>303</v>
@@ -5037,49 +5037,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>115</v>
+        <v>380</v>
       </c>
       <c r="D21" s="7">
-        <v>79732</v>
+        <v>280958</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="I21" s="7">
-        <v>91513</v>
+        <v>265259</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>253</v>
+        <v>752</v>
       </c>
       <c r="N21" s="7">
-        <v>171245</v>
+        <v>546217</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,49 +5090,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>15979</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>524</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>524</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="H22" s="7">
-        <v>23</v>
-      </c>
-      <c r="I22" s="7">
-        <v>16734</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M22" s="7">
-        <v>46</v>
-      </c>
-      <c r="N22" s="7">
-        <v>32713</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5147,13 @@
         <v>1650</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -5162,13 +5162,13 @@
         <v>5029</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -5177,13 +5177,13 @@
         <v>6680</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,49 +5192,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>114890</v>
+        <v>15979</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="7">
+        <v>23</v>
+      </c>
+      <c r="I24" s="7">
+        <v>16734</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M24" s="7">
+        <v>46</v>
+      </c>
+      <c r="N24" s="7">
+        <v>32713</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="H24" s="7">
-        <v>181</v>
-      </c>
-      <c r="I24" s="7">
-        <v>126194</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M24" s="7">
-        <v>342</v>
-      </c>
-      <c r="N24" s="7">
-        <v>241083</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,49 +5243,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>114890</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>224</v>
+        <v>321</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="I25" s="7">
-        <v>524</v>
+        <v>126194</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M25" s="7">
+        <v>342</v>
+      </c>
+      <c r="N25" s="7">
+        <v>241083</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>524</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5351,13 @@
         <v>360690</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>510</v>
@@ -5366,13 +5366,13 @@
         <v>356772</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>1005</v>
@@ -5381,13 +5381,13 @@
         <v>717462</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E30E44-7FF7-4C09-AEB3-C2E4FE35D644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB19B7D-55D1-4D65-B8CB-EAC900DE6DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{20418202-2C55-44CD-9529-C898D5ADCDFE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0AA0D0A9-81CC-4B58-93F7-CAAEA4B50039}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="345">
   <si>
     <t>Menores según frecuencia de estar contento con su forma de ser en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
@@ -67,988 +67,1012 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1083,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1155,39 +1179,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1239,7 +1263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1350,13 +1374,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1365,6 +1382,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1429,19 +1453,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E6C64B-3CAA-4CFC-86CE-6FFCF3F41C0D}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F44AB6-4DB9-47A2-BB6C-7E959C199E01}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1832,47 +1876,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,47 +1921,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,49 +1964,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>671</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
-      </c>
-      <c r="N12" s="7">
-        <v>4585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,49 +2009,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7">
-        <v>17178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
-      </c>
-      <c r="I13" s="7">
-        <v>23163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
-      </c>
-      <c r="N13" s="7">
-        <v>40341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,49 +2054,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
-      </c>
-      <c r="D14" s="7">
-        <v>43622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
-      </c>
-      <c r="I14" s="7">
-        <v>30835</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>111</v>
-      </c>
-      <c r="N14" s="7">
-        <v>74457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,102 +2099,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>98</v>
-      </c>
-      <c r="D15" s="7">
-        <v>64714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>181</v>
-      </c>
-      <c r="N15" s="7">
-        <v>120756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="D16" s="7">
-        <v>667</v>
+        <v>82499</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>70056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="N16" s="7">
-        <v>667</v>
+        <v>152555</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,49 +2197,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D17" s="7">
-        <v>1715</v>
+        <v>50151</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>51029</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="N17" s="7">
-        <v>1715</v>
+        <v>101180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,49 +2248,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>14825</v>
+        <v>6477</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>23049</v>
+        <v>5089</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>37874</v>
+        <v>11566</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,49 +2299,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>116615</v>
+        <v>1036</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>99864</v>
+        <v>1374</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>322</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>216479</v>
+        <v>2409</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,49 +2350,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>144352</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>142690</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="M20" s="7">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>287042</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,102 +2401,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>417</v>
+        <v>210</v>
       </c>
       <c r="D21" s="7">
-        <v>278175</v>
+        <v>140163</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I21" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>811</v>
+        <v>401</v>
       </c>
       <c r="N21" s="7">
-        <v>543778</v>
+        <v>267711</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="D22" s="7">
-        <v>667</v>
+        <v>105475</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>103468</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="N22" s="7">
-        <v>667</v>
+        <v>208944</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,49 +2505,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="D23" s="7">
-        <v>1715</v>
+        <v>83643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="I23" s="7">
-        <v>1374</v>
+        <v>71998</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="M23" s="7">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="N23" s="7">
-        <v>3089</v>
+        <v>155640</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,49 +2556,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>18739</v>
+        <v>12261</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I24" s="7">
-        <v>23720</v>
+        <v>18631</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="N24" s="7">
-        <v>42458</v>
+        <v>30892</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,49 +2607,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>133794</v>
+        <v>680</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>123027</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
-        <v>383</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>256820</v>
+        <v>680</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,49 +2658,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>187975</v>
+        <v>667</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="H26" s="7">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>173524</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="M26" s="7">
-        <v>538</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>361499</v>
+        <v>667</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,55 +2709,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>305</v>
+      </c>
+      <c r="D27" s="7">
+        <v>202726</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>286</v>
+      </c>
+      <c r="I27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>591</v>
+      </c>
+      <c r="N27" s="7">
+        <v>396823</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>282</v>
+      </c>
+      <c r="D28" s="7">
+        <v>187975</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="7">
+        <v>256</v>
+      </c>
+      <c r="I28" s="7">
+        <v>173524</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M28" s="7">
+        <v>538</v>
+      </c>
+      <c r="N28" s="7">
+        <v>361499</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>200</v>
+      </c>
+      <c r="D29" s="7">
+        <v>133794</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="7">
+        <v>183</v>
+      </c>
+      <c r="I29" s="7">
+        <v>123027</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M29" s="7">
+        <v>383</v>
+      </c>
+      <c r="N29" s="7">
+        <v>256820</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7">
+        <v>18739</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="7">
+        <v>36</v>
+      </c>
+      <c r="I30" s="7">
+        <v>23720</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" s="7">
+        <v>65</v>
+      </c>
+      <c r="N30" s="7">
+        <v>42458</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1715</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1374</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="7">
+        <v>5</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3089</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>667</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>667</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>515</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>342890</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>477</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321645</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>992</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>664534</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2762,8 +3084,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E64474-DCB0-4943-AA1E-4E49E02A69A7}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B49D862-A100-47B8-A00B-08E033060E7C}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2779,7 +3101,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3154,47 +3476,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,49 +3519,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,49 +3564,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2634</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
-      </c>
-      <c r="N12" s="7">
-        <v>4925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,49 +3609,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7">
-        <v>27838</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
-      </c>
-      <c r="I13" s="7">
-        <v>29500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>81</v>
-      </c>
-      <c r="N13" s="7">
-        <v>57339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,49 +3654,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
-      </c>
-      <c r="D14" s="7">
-        <v>35048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>55</v>
-      </c>
-      <c r="I14" s="7">
-        <v>39497</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>103</v>
-      </c>
-      <c r="N14" s="7">
-        <v>74545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,102 +3699,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="D16" s="7">
-        <v>1307</v>
+        <v>81820</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="I16" s="7">
-        <v>798</v>
+        <v>89055</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="N16" s="7">
-        <v>2105</v>
+        <v>170875</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,49 +3797,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="D17" s="7">
-        <v>3332</v>
+        <v>67213</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="I17" s="7">
-        <v>1974</v>
+        <v>56140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="N17" s="7">
-        <v>5306</v>
+        <v>123354</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,49 +3848,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>17068</v>
+        <v>5163</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="H18" s="7">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="I18" s="7">
-        <v>22131</v>
+        <v>8723</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="M18" s="7">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="N18" s="7">
-        <v>39199</v>
+        <v>13886</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,49 +3899,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>102991</v>
+        <v>1859</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="H19" s="7">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>95393</v>
+        <v>916</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="M19" s="7">
-        <v>288</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>198384</v>
+        <v>2774</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,49 +3950,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>141636</v>
+        <v>619</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>129111</v>
+        <v>680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
-        <v>390</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>270747</v>
+        <v>1300</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>199</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,102 +4001,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>392</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>266334</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>355</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>249406</v>
+        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>747</v>
+        <v>446</v>
       </c>
       <c r="N21" s="7">
-        <v>515740</v>
+        <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="D22" s="7">
-        <v>1307</v>
+        <v>94865</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="I22" s="7">
-        <v>1478</v>
+        <v>79552</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="N22" s="7">
-        <v>2785</v>
+        <v>174417</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,49 +4105,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D23" s="7">
-        <v>3986</v>
+        <v>63616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="I23" s="7">
-        <v>1974</v>
+        <v>68753</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="M23" s="7">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="N23" s="7">
-        <v>5959</v>
+        <v>132369</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,49 +4156,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>19702</v>
+        <v>14539</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="H24" s="7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I24" s="7">
-        <v>24422</v>
+        <v>15700</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="M24" s="7">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="N24" s="7">
-        <v>44124</v>
+        <v>30239</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,49 +4207,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>130830</v>
+        <v>2127</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>222</v>
+        <v>49</v>
       </c>
       <c r="H25" s="7">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>124893</v>
+        <v>1058</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>255723</v>
+        <v>3185</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,49 +4258,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>176684</v>
+        <v>687</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="H26" s="7">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>168607</v>
+        <v>798</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>232</v>
+        <v>56</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>345292</v>
+        <v>1486</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,55 +4309,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>259</v>
+      </c>
+      <c r="D27" s="7">
+        <v>175834</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>235</v>
+      </c>
+      <c r="I27" s="7">
+        <v>165861</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>494</v>
+      </c>
+      <c r="N27" s="7">
+        <v>341695</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>256</v>
+      </c>
+      <c r="D28" s="7">
+        <v>176684</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="7">
+        <v>237</v>
+      </c>
+      <c r="I28" s="7">
+        <v>168607</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" s="7">
+        <v>493</v>
+      </c>
+      <c r="N28" s="7">
+        <v>345292</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>190</v>
+      </c>
+      <c r="D29" s="7">
+        <v>130830</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29" s="7">
+        <v>179</v>
+      </c>
+      <c r="I29" s="7">
+        <v>124893</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" s="7">
+        <v>369</v>
+      </c>
+      <c r="N29" s="7">
+        <v>255723</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>30</v>
+      </c>
+      <c r="D30" s="7">
+        <v>19702</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" s="7">
+        <v>36</v>
+      </c>
+      <c r="I30" s="7">
+        <v>24422</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" s="7">
+        <v>66</v>
+      </c>
+      <c r="N30" s="7">
+        <v>44124</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3986</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1974</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" s="7">
+        <v>8</v>
+      </c>
+      <c r="N31" s="7">
+        <v>5959</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1307</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1478</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2785</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>484</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>332508</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>456</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321375</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>940</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>653883</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4084,8 +4684,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E199B-8457-40DF-9B7D-59888B960C2A}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041387F4-DD7C-4892-870A-B2834C0ABEF9}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4101,7 +4701,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4476,47 +5076,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,47 +5121,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1793</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1793</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,49 +5164,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1517</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,49 +5209,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7">
-        <v>30780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>50</v>
-      </c>
-      <c r="I13" s="7">
-        <v>33339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>95</v>
-      </c>
-      <c r="N13" s="7">
-        <v>64119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,49 +5254,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>64</v>
-      </c>
-      <c r="D14" s="7">
-        <v>45001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>83</v>
-      </c>
-      <c r="I14" s="7">
-        <v>54864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>147</v>
-      </c>
-      <c r="N14" s="7">
-        <v>99865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,102 +5299,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>115</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>138</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>253</v>
-      </c>
-      <c r="N15" s="7">
-        <v>171245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>119217</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="I16" s="7">
-        <v>524</v>
+        <v>114537</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="N16" s="7">
-        <v>524</v>
+        <v>233754</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,49 +5397,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D17" s="7">
-        <v>1650</v>
+        <v>59046</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="I17" s="7">
-        <v>3236</v>
+        <v>62436</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="N17" s="7">
-        <v>4887</v>
+        <v>121483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,49 +5448,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>12028</v>
+        <v>7620</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H18" s="7">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>15217</v>
+        <v>5653</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="M18" s="7">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>27245</v>
+        <v>13274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,49 +5499,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>84110</v>
+        <v>759</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="H19" s="7">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>92855</v>
+        <v>3356</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="M19" s="7">
-        <v>247</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>176965</v>
+        <v>4115</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>293</v>
+        <v>172</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,49 +5550,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>183170</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>296</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="H20" s="7">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>153427</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>298</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>299</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>336597</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>301</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>302</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,102 +5601,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="D21" s="7">
-        <v>280958</v>
+        <v>186643</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>265259</v>
+        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>752</v>
+        <v>527</v>
       </c>
       <c r="N21" s="7">
-        <v>546217</v>
+        <v>372625</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>108954</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>281</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="I22" s="7">
-        <v>524</v>
+        <v>93754</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="N22" s="7">
-        <v>524</v>
+        <v>202708</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,49 +5705,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D23" s="7">
-        <v>1650</v>
+        <v>55844</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="H23" s="7">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="I23" s="7">
-        <v>5029</v>
+        <v>63757</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="N23" s="7">
-        <v>6680</v>
+        <v>119601</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>296</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>297</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,49 +5756,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>15979</v>
+        <v>8359</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>301</v>
       </c>
       <c r="H24" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I24" s="7">
-        <v>16734</v>
+        <v>11081</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>314</v>
+        <v>39</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="M24" s="7">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N24" s="7">
-        <v>32713</v>
+        <v>19440</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,49 +5807,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>114890</v>
+        <v>891</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>319</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>320</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>126194</v>
+        <v>1673</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>323</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
-        <v>342</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>241083</v>
+        <v>2564</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,49 +5858,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>228170</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>328</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>329</v>
+        <v>53</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
-        <v>298</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>208291</v>
+        <v>524</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>332</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="M26" s="7">
-        <v>607</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>436462</v>
+        <v>524</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>335</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,55 +5909,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
+        <v>243</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="7">
+        <v>478</v>
+      </c>
+      <c r="N27" s="7">
+        <v>344837</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>309</v>
+      </c>
+      <c r="D28" s="7">
+        <v>228170</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H28" s="7">
+        <v>298</v>
+      </c>
+      <c r="I28" s="7">
+        <v>208291</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M28" s="7">
+        <v>607</v>
+      </c>
+      <c r="N28" s="7">
+        <v>436462</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>161</v>
+      </c>
+      <c r="D29" s="7">
+        <v>114890</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="7">
+        <v>181</v>
+      </c>
+      <c r="I29" s="7">
+        <v>126194</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="7">
+        <v>342</v>
+      </c>
+      <c r="N29" s="7">
+        <v>241083</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>23</v>
+      </c>
+      <c r="D30" s="7">
+        <v>15979</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H30" s="7">
+        <v>23</v>
+      </c>
+      <c r="I30" s="7">
+        <v>16734</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="M30" s="7">
+        <v>46</v>
+      </c>
+      <c r="N30" s="7">
+        <v>32713</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1650</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H31" s="7">
+        <v>7</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5029</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M31" s="7">
+        <v>9</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6680</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>524</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>524</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>495</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>360690</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>510</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>356772</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7">
         <v>1005</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>717462</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A03-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB19B7D-55D1-4D65-B8CB-EAC900DE6DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2799B1B0-358C-4FBF-BE04-92E139C27D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0AA0D0A9-81CC-4B58-93F7-CAAEA4B50039}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{45EDFA26-9A34-49C2-A4EF-CF9C809863AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="343">
   <si>
     <t>Menores según frecuencia de estar contento con su forma de ser en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
@@ -97,979 +97,973 @@
     <t>58,86%</t>
   </si>
   <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
   </si>
   <si>
     <t>54,93%</t>
   </si>
   <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
   </si>
   <si>
     <t>35,78%</t>
   </si>
   <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
   </si>
   <si>
     <t>40,01%</t>
   </si>
   <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
   </si>
   <si>
     <t>37,79%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de estar contento con su forma de ser en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de estar contento con su forma de ser en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>0,07%</t>
@@ -1484,7 +1478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F44AB6-4DB9-47A2-BB6C-7E959C199E01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE240098-08D9-47A7-A52E-0CAC661E0B73}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3008,7 +3002,7 @@
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,7 +3058,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3084,7 +3078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B49D862-A100-47B8-A00B-08E033060E7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C53BB1E-7FA4-45BC-A172-3C609409BBCB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3101,7 +3095,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3752,13 +3746,13 @@
         <v>81820</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H16" s="7">
         <v>126</v>
@@ -3767,13 +3761,13 @@
         <v>89055</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M16" s="7">
         <v>244</v>
@@ -3782,13 +3776,13 @@
         <v>170875</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3797,13 @@
         <v>67213</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -3818,13 +3812,13 @@
         <v>56140</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>175</v>
@@ -3833,13 +3827,13 @@
         <v>123354</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,10 +3848,10 @@
         <v>5163</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>154</v>
@@ -4219,7 +4213,7 @@
         <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4228,13 +4222,13 @@
         <v>1058</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4243,13 +4237,13 @@
         <v>3185</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4258,13 @@
         <v>687</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4389,7 +4383,7 @@
         <v>214</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M28" s="7">
         <v>493</v>
@@ -4398,13 +4392,13 @@
         <v>345292</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4413,13 @@
         <v>130830</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H29" s="7">
         <v>179</v>
@@ -4434,13 +4428,13 @@
         <v>124893</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M29" s="7">
         <v>369</v>
@@ -4449,13 +4443,13 @@
         <v>255723</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4464,13 @@
         <v>19702</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>229</v>
+        <v>49</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H30" s="7">
         <v>36</v>
@@ -4485,13 +4479,13 @@
         <v>24422</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -4500,13 +4494,13 @@
         <v>44124</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4515,13 @@
         <v>3986</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -4536,13 +4530,13 @@
         <v>1974</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -4554,10 +4548,10 @@
         <v>54</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4566,13 @@
         <v>1307</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -4593,7 +4587,7 @@
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -4605,10 +4599,10 @@
         <v>124</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,7 +4658,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4684,7 +4678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041387F4-DD7C-4892-870A-B2834C0ABEF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D571F46-4059-48F6-A029-DC2C964E57D3}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4701,7 +4695,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5352,13 +5346,13 @@
         <v>119217</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>166</v>
@@ -5367,13 +5361,13 @@
         <v>114537</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>330</v>
@@ -5382,13 +5376,13 @@
         <v>233754</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5397,13 @@
         <v>59046</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -5418,13 +5412,13 @@
         <v>62436</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
@@ -5433,13 +5427,13 @@
         <v>121483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5448,13 @@
         <v>7620</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -5469,13 +5463,13 @@
         <v>5653</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -5484,13 +5478,13 @@
         <v>13274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5499,13 @@
         <v>759</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5520,13 +5514,13 @@
         <v>3356</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -5535,13 +5529,13 @@
         <v>4115</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>278</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,7 +5571,7 @@
         <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5592,7 +5586,7 @@
         <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5654,13 @@
         <v>108954</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -5675,13 +5669,13 @@
         <v>93754</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>277</v>
@@ -5690,13 +5684,13 @@
         <v>202708</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5705,13 @@
         <v>55844</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>92</v>
@@ -5726,13 +5720,13 @@
         <v>63757</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>169</v>
@@ -5741,13 +5735,13 @@
         <v>119601</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5756,13 @@
         <v>8359</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>300</v>
+        <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5777,13 +5771,13 @@
         <v>11081</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
@@ -5792,13 +5786,13 @@
         <v>19440</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>305</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5807,13 @@
         <v>891</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>300</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5828,13 +5822,13 @@
         <v>1673</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5846,10 +5840,10 @@
         <v>45</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,7 +5864,7 @@
         <v>53</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5879,13 +5873,13 @@
         <v>524</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5894,13 +5888,13 @@
         <v>524</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>315</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,13 +5962,13 @@
         <v>228170</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H28" s="7">
         <v>298</v>
@@ -5983,13 +5977,13 @@
         <v>208291</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M28" s="7">
         <v>607</v>
@@ -5998,13 +5992,13 @@
         <v>436462</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,13 +6013,13 @@
         <v>114890</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="H29" s="7">
         <v>181</v>
@@ -6034,13 +6028,13 @@
         <v>126194</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>30</v>
+        <v>324</v>
       </c>
       <c r="M29" s="7">
         <v>342</v>
@@ -6049,13 +6043,13 @@
         <v>241083</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,13 +6064,13 @@
         <v>15979</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -6085,13 +6079,13 @@
         <v>16734</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M30" s="7">
         <v>46</v>
@@ -6100,13 +6094,13 @@
         <v>32713</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,7 +6121,7 @@
         <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -6136,13 +6130,13 @@
         <v>5029</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>123</v>
+        <v>338</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>164</v>
+        <v>339</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -6151,13 +6145,13 @@
         <v>6680</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>124</v>
+        <v>340</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,7 +6172,7 @@
         <v>53</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -6187,7 +6181,7 @@
         <v>524</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
@@ -6202,13 +6196,13 @@
         <v>524</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,7 +6258,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
